--- a/Internal Quoting Sheet (Wholesale).xlsx
+++ b/Internal Quoting Sheet (Wholesale).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D742D4B0-497D-4FE8-9C56-BD38CFC42B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9789DBC5-4B6C-4539-ABF5-4B2473636A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="558" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="558" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="45" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="320">
   <si>
     <t>Description</t>
   </si>
@@ -1026,6 +1026,9 @@
   <si>
     <t>PA-6</t>
   </si>
+  <si>
+    <t># of Printers</t>
+  </si>
 </sst>
 </file>
 
@@ -1965,7 +1968,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2506,6 +2509,11 @@
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="17" fillId="38" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="38" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2535,186 +2543,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="68" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="68" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="68" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="69" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="69" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="69" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="56" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="56" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="56" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="57" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="57" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="57" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="58" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="58" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="58" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="65" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="65" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="65" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="66" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="66" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="66" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="67" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="67" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="67" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="59" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="59" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="59" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="62" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="62" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="62" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="53" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="53" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="53" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="54" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2824,13 +2652,187 @@
     <xf numFmtId="0" fontId="31" fillId="55" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="17" fillId="38" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="38" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="59" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="59" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="59" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="62" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="62" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="62" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="53" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="53" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="53" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="68" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="68" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="68" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="69" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="69" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="69" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="56" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="56" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="56" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="57" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="57" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="57" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="58" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="58" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="58" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="65" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="65" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="65" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="66" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="66" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="66" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="67" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="67" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="67" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17616,7 +17618,7 @@
                   <c:v>6.9591666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5478976640711903</c:v>
+                  <c:v>0.63697441601779758</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -17895,7 +17897,7 @@
                   <c:v>4.7016666666666662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7213793103448276</c:v>
+                  <c:v>0.4303448275862069</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -19366,8 +19368,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19389,21 +19391,21 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="231" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
       <c r="E1" s="6"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="227" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
+      <c r="A2" s="232" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="64"/>
@@ -19413,10 +19415,10 @@
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="230" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="225"/>
+      <c r="C3" s="230"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="65"/>
@@ -19426,10 +19428,10 @@
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="233" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="228"/>
+      <c r="C4" s="233"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
@@ -19474,21 +19476,21 @@
       <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="224" t="s">
+      <c r="F6" s="229" t="s">
         <v>244</v>
       </c>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="229"/>
     </row>
     <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>11</v>
@@ -19531,27 +19533,27 @@
         <v>7.05321</v>
       </c>
       <c r="F8" s="136">
-        <f>SUM($E8*F$22)</f>
+        <f t="shared" ref="F8:K11" si="0">SUM($E8*F$22)</f>
         <v>14.10642</v>
       </c>
       <c r="G8" s="136">
-        <f>SUM($E8*G$22)</f>
+        <f t="shared" si="0"/>
         <v>28.21284</v>
       </c>
       <c r="H8" s="136">
-        <f>SUM($E8*H$22)</f>
+        <f t="shared" si="0"/>
         <v>42.31926</v>
       </c>
       <c r="I8" s="136">
-        <f>SUM($E8*I$22)</f>
+        <f t="shared" si="0"/>
         <v>56.42568</v>
       </c>
       <c r="J8" s="136">
-        <f>SUM($E8*J$22)</f>
+        <f t="shared" si="0"/>
         <v>105.79814999999999</v>
       </c>
       <c r="K8" s="136">
-        <f>SUM($E8*K$22)</f>
+        <f t="shared" si="0"/>
         <v>141.0642</v>
       </c>
     </row>
@@ -19574,27 +19576,27 @@
         <v>1.0438749999999999</v>
       </c>
       <c r="F9" s="138">
-        <f>SUM($E9*F$22)</f>
+        <f t="shared" si="0"/>
         <v>2.0877499999999998</v>
       </c>
       <c r="G9" s="138">
-        <f>SUM($E9*G$22)</f>
+        <f t="shared" si="0"/>
         <v>4.1754999999999995</v>
       </c>
       <c r="H9" s="138">
-        <f>SUM($E9*H$22)</f>
+        <f t="shared" si="0"/>
         <v>6.2632499999999993</v>
       </c>
       <c r="I9" s="138">
-        <f>SUM($E9*I$22)</f>
+        <f t="shared" si="0"/>
         <v>8.3509999999999991</v>
       </c>
       <c r="J9" s="138">
-        <f>SUM($E9*J$22)</f>
+        <f t="shared" si="0"/>
         <v>15.658124999999998</v>
       </c>
       <c r="K9" s="138">
-        <f>SUM($E9*K$22)</f>
+        <f t="shared" si="0"/>
         <v>20.877499999999998</v>
       </c>
     </row>
@@ -19617,66 +19619,66 @@
         <v>6.9591666666666665</v>
       </c>
       <c r="F10" s="140">
-        <f>SUM($E10*F$22)</f>
+        <f t="shared" si="0"/>
         <v>13.918333333333333</v>
       </c>
       <c r="G10" s="140">
-        <f>SUM($E10*G$22)</f>
+        <f t="shared" si="0"/>
         <v>27.836666666666666</v>
       </c>
       <c r="H10" s="140">
-        <f>SUM($E10*H$22)</f>
+        <f t="shared" si="0"/>
         <v>41.754999999999995</v>
       </c>
       <c r="I10" s="140">
-        <f>SUM($E10*I$22)</f>
+        <f t="shared" si="0"/>
         <v>55.673333333333332</v>
       </c>
       <c r="J10" s="140">
-        <f>SUM($E10*J$22)</f>
+        <f t="shared" si="0"/>
         <v>104.3875</v>
       </c>
       <c r="K10" s="140">
-        <f>SUM($E10*K$22)</f>
+        <f t="shared" si="0"/>
         <v>139.18333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="227" t="s">
+      <c r="A11" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E11" s="141">
         <f>SUM(D6*General!B7)</f>
+        <v>0.63697441601779758</v>
+      </c>
+      <c r="F11" s="150">
+        <f t="shared" si="0"/>
+        <v>1.2739488320355952</v>
+      </c>
+      <c r="G11" s="150">
+        <f t="shared" si="0"/>
         <v>2.5478976640711903</v>
       </c>
-      <c r="F11" s="150">
-        <f>SUM($E11*F$22)</f>
+      <c r="H11" s="150">
+        <f t="shared" si="0"/>
+        <v>3.8218464961067857</v>
+      </c>
+      <c r="I11" s="150">
+        <f t="shared" si="0"/>
         <v>5.0957953281423807</v>
       </c>
-      <c r="G11" s="150">
-        <f>SUM($E11*G$22)</f>
-        <v>10.191590656284761</v>
-      </c>
-      <c r="H11" s="150">
-        <f>SUM($E11*H$22)</f>
-        <v>15.287385984427143</v>
-      </c>
-      <c r="I11" s="150">
-        <f>SUM($E11*I$22)</f>
-        <v>20.383181312569523</v>
-      </c>
       <c r="J11" s="150">
-        <f>SUM($E11*J$22)</f>
-        <v>38.218464961067852</v>
+        <f t="shared" si="0"/>
+        <v>9.554616240266963</v>
       </c>
       <c r="K11" s="150">
-        <f>SUM($E11*K$22)</f>
-        <v>50.957953281423805</v>
+        <f t="shared" si="0"/>
+        <v>12.739488320355951</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -19698,27 +19700,27 @@
         <v>0</v>
       </c>
       <c r="F12" s="143">
-        <f>SUM($E12*F$23)</f>
+        <f t="shared" ref="F12:K12" si="1">SUM($E12*F$23)</f>
         <v>0</v>
       </c>
       <c r="G12" s="143">
-        <f>SUM($E12*G$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="143">
-        <f>SUM($E12*H$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="143">
-        <f>SUM($E12*I$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="143">
-        <f>SUM($E12*J$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="143">
-        <f>SUM($E12*K$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -19741,27 +19743,27 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F13" s="145">
-        <f>SUM($E13*F$24)</f>
+        <f t="shared" ref="F13:K15" si="2">SUM($E13*F$24)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="G13" s="145">
-        <f>SUM($E13*G$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H13" s="145">
-        <f>SUM($E13*H$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I13" s="145">
-        <f>SUM($E13*I$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J13" s="145">
-        <f>SUM($E13*J$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="K13" s="145">
-        <f>SUM($E13*K$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -19784,36 +19786,36 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="F14" s="147">
-        <f>SUM($E14*F$24)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="G14" s="147">
-        <f>SUM($E14*G$24)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="H14" s="147">
-        <f>SUM($E14*H$24)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="I14" s="147">
-        <f>SUM($E14*I$24)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="J14" s="147">
-        <f>SUM($E14*J$24)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="K14" s="147">
-        <f>SUM($E14*K$24)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="227"/>
-      <c r="C15" s="227"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="232"/>
       <c r="D15" s="8" t="s">
         <v>19</v>
       </c>
@@ -19822,27 +19824,27 @@
         <v>0</v>
       </c>
       <c r="F15" s="151">
-        <f>SUM($E15*F$24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="151">
-        <f>SUM($E15*G$24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="151">
-        <f>SUM($E15*H$24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="151">
-        <f>SUM($E15*I$24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="151">
-        <f>SUM($E15*J$24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="151">
-        <f>SUM($E15*K$24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19862,31 +19864,31 @@
       </c>
       <c r="E16" s="149" cm="1">
         <f t="array" ref="E16">SUM(E8:E14*(General!$B$5))</f>
-        <v>1.8854149330737859</v>
+        <v>1.6943226082684466</v>
       </c>
       <c r="F16" s="149" cm="1">
         <f t="array" ref="F16">SUM(F8:F14*(General!$B$5))</f>
-        <v>3.6458298661475719</v>
+        <v>3.2636452165368932</v>
       </c>
       <c r="G16" s="149" cm="1">
         <f t="array" ref="G16">SUM(G8:G14*(General!$B$5))</f>
-        <v>7.1666597322951437</v>
+        <v>6.4022904330737864</v>
       </c>
       <c r="H16" s="149" cm="1">
         <f t="array" ref="H16">SUM(H8:H14*(General!$B$5))</f>
-        <v>10.687489598442715</v>
+        <v>9.5409356496106792</v>
       </c>
       <c r="I16" s="149" cm="1">
         <f t="array" ref="I16">SUM(I8:I14*(General!$B$5))</f>
-        <v>14.208319464590287</v>
+        <v>12.679580866147573</v>
       </c>
       <c r="J16" s="149" cm="1">
         <f t="array" ref="J16">SUM(J8:J14*(General!$B$5))</f>
-        <v>26.531223996106789</v>
+        <v>23.664839124026699</v>
       </c>
       <c r="K16" s="149" cm="1">
         <f t="array" ref="K16">SUM(K8:K14*(General!$B$5))</f>
-        <v>35.333298661475716</v>
+        <v>31.511452165368933</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -19905,31 +19907,31 @@
       </c>
       <c r="E17" s="27">
         <f>SUM(E8:E15)</f>
-        <v>18.854149330737858</v>
+        <v>16.943226082684465</v>
       </c>
       <c r="F17" s="27">
-        <f t="shared" ref="F17:K17" si="0">SUM(F8:F15)</f>
-        <v>36.458298661475716</v>
+        <f t="shared" ref="F17:K17" si="3">SUM(F8:F15)</f>
+        <v>32.636452165368929</v>
       </c>
       <c r="G17" s="27">
-        <f t="shared" si="0"/>
-        <v>71.666597322951432</v>
+        <f t="shared" si="3"/>
+        <v>64.022904330737859</v>
       </c>
       <c r="H17" s="27">
-        <f t="shared" si="0"/>
-        <v>106.87489598442714</v>
+        <f t="shared" si="3"/>
+        <v>95.409356496106781</v>
       </c>
       <c r="I17" s="27">
-        <f t="shared" si="0"/>
-        <v>142.08319464590286</v>
+        <f t="shared" si="3"/>
+        <v>126.79580866147572</v>
       </c>
       <c r="J17" s="27">
-        <f t="shared" si="0"/>
-        <v>265.31223996106786</v>
+        <f t="shared" si="3"/>
+        <v>236.64839124026696</v>
       </c>
       <c r="K17" s="27">
-        <f t="shared" si="0"/>
-        <v>353.33298661475715</v>
+        <f t="shared" si="3"/>
+        <v>315.11452165368934</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -19949,27 +19951,27 @@
       <c r="E18" s="27"/>
       <c r="F18" s="27">
         <f>F17*General!$B$8+General!$B$9</f>
-        <v>1.357290661182796</v>
+        <v>1.2464571127956989</v>
       </c>
       <c r="G18" s="27">
         <f>G17*General!$B$8+General!$B$9</f>
-        <v>2.3783313223655913</v>
+        <v>2.1566642255913981</v>
       </c>
       <c r="H18" s="27">
         <f>H17*General!$B$8+General!$B$9</f>
-        <v>3.3993719835483871</v>
+        <v>3.0668713383870965</v>
       </c>
       <c r="I18" s="27">
         <f>I17*General!$B$8+General!$B$9</f>
-        <v>4.4204126447311829</v>
+        <v>3.9770784511827957</v>
       </c>
       <c r="J18" s="27">
         <f>J17*General!$B$8+General!$B$9</f>
-        <v>7.9940549588709677</v>
+        <v>7.1628033459677418</v>
       </c>
       <c r="K18" s="27">
         <f>K17*General!$B$8+General!$B$9</f>
-        <v>10.546656611827958</v>
+        <v>9.4383211279569927</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -19988,39 +19990,39 @@
       </c>
       <c r="E19" s="27">
         <f>SUM(E8:E16)</f>
-        <v>20.739564263811644</v>
+        <v>18.637548690952912</v>
       </c>
       <c r="F19" s="27">
         <f>SUM((F8:F16,F18))</f>
-        <v>41.461419188806083</v>
+        <v>37.146554494701519</v>
       </c>
       <c r="G19" s="27">
         <f>SUM((G8:G16,G18))</f>
-        <v>81.211588377612173</v>
+        <v>72.581858989403045</v>
       </c>
       <c r="H19" s="27">
         <f>SUM((H8:H16,H18))</f>
-        <v>120.96175756641824</v>
+        <v>108.01716348410456</v>
       </c>
       <c r="I19" s="27">
         <f>SUM((I8:I16,I18))</f>
-        <v>160.71192675522434</v>
+        <v>143.45246797880608</v>
       </c>
       <c r="J19" s="27">
         <f>SUM((J8:J16,J18))</f>
-        <v>299.83751891604561</v>
+        <v>267.47603371026139</v>
       </c>
       <c r="K19" s="27">
         <f>SUM((K8:K16,K18))</f>
-        <v>399.21294188806087</v>
+        <v>356.0642949470153</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="227"/>
-      <c r="C20" s="227"/>
+      <c r="B20" s="232"/>
+      <c r="C20" s="232"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
@@ -20178,27 +20180,27 @@
       </c>
       <c r="F25" s="27">
         <f>F19</f>
-        <v>41.461419188806083</v>
+        <v>37.146554494701519</v>
       </c>
       <c r="G25" s="27">
-        <f t="shared" ref="G25:K25" si="1">G19</f>
-        <v>81.211588377612173</v>
+        <f t="shared" ref="G25:K25" si="4">G19</f>
+        <v>72.581858989403045</v>
       </c>
       <c r="H25" s="27">
-        <f t="shared" si="1"/>
-        <v>120.96175756641824</v>
+        <f t="shared" si="4"/>
+        <v>108.01716348410456</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" si="1"/>
-        <v>160.71192675522434</v>
+        <f t="shared" si="4"/>
+        <v>143.45246797880608</v>
       </c>
       <c r="J25" s="27">
-        <f t="shared" si="1"/>
-        <v>299.83751891604561</v>
+        <f t="shared" si="4"/>
+        <v>267.47603371026139</v>
       </c>
       <c r="K25" s="27">
-        <f t="shared" si="1"/>
-        <v>399.21294188806087</v>
+        <f t="shared" si="4"/>
+        <v>356.0642949470153</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -20219,31 +20221,31 @@
       </c>
       <c r="E26" s="28">
         <f>E25-E19</f>
-        <v>24.260435736188356</v>
+        <v>26.362451309047088</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" ref="F26:K26" si="2">F25-$E19</f>
-        <v>20.721854924994439</v>
+        <f t="shared" ref="F26:K26" si="5">F25-$E19</f>
+        <v>18.509005803748607</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="2"/>
-        <v>60.472024113800529</v>
+        <f t="shared" si="5"/>
+        <v>53.944310298450134</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="2"/>
-        <v>100.2221933026066</v>
+        <f t="shared" si="5"/>
+        <v>89.379614793151646</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="2"/>
-        <v>139.9723624914127</v>
+        <f t="shared" si="5"/>
+        <v>124.81491928785317</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="2"/>
-        <v>279.09795465223397</v>
+        <f t="shared" si="5"/>
+        <v>248.83848501930848</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="2"/>
-        <v>378.47337762424922</v>
+        <f t="shared" si="5"/>
+        <v>337.42674625606242</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -20263,32 +20265,32 @@
         <v>107</v>
       </c>
       <c r="E27" s="30">
-        <f t="shared" ref="E27:K27" si="3">SUM(E26/E25)</f>
-        <v>0.53912079413751901</v>
+        <f t="shared" ref="E27:K27" si="6">SUM(E26/E25)</f>
+        <v>0.58583225131215755</v>
       </c>
       <c r="F27" s="30">
-        <f t="shared" si="3"/>
-        <v>0.49978643593051458</v>
+        <f t="shared" si="6"/>
+        <v>0.49826978721239623</v>
       </c>
       <c r="G27" s="30">
-        <f t="shared" si="3"/>
-        <v>0.74462309285987349</v>
+        <f t="shared" si="6"/>
+        <v>0.74322029015991453</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="3"/>
-        <v>0.82854445337879723</v>
+        <f t="shared" si="6"/>
+        <v>0.82745752536173989</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="3"/>
-        <v>0.87095192819510237</v>
+        <f t="shared" si="6"/>
+        <v>0.87007857756963469</v>
       </c>
       <c r="J27" s="30">
-        <f t="shared" si="3"/>
-        <v>0.93083065675440468</v>
+        <f t="shared" si="6"/>
+        <v>0.9303206779597244</v>
       </c>
       <c r="K27" s="30">
-        <f t="shared" si="3"/>
-        <v>0.94804886794069165</v>
+        <f t="shared" si="6"/>
+        <v>0.94765678851981983</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -20331,31 +20333,31 @@
       </c>
       <c r="E29" s="31">
         <f>SUM(E26*(1-E28)+$E$19)</f>
-        <v>36.994056207057838</v>
+        <v>36.300391068014463</v>
       </c>
       <c r="F29" s="31">
-        <f t="shared" ref="F29:K29" si="4">SUM(F26*(1-F28)+$E$19)</f>
-        <v>41.461419188806083</v>
+        <f t="shared" ref="F29:K29" si="7">SUM(F26*(1-F28)+$E$19)</f>
+        <v>37.146554494701519</v>
       </c>
       <c r="G29" s="31">
-        <f t="shared" si="4"/>
-        <v>81.211588377612173</v>
+        <f t="shared" si="7"/>
+        <v>72.581858989403045</v>
       </c>
       <c r="H29" s="31">
-        <f t="shared" si="4"/>
-        <v>120.96175756641824</v>
+        <f t="shared" si="7"/>
+        <v>108.01716348410456</v>
       </c>
       <c r="I29" s="31">
-        <f t="shared" si="4"/>
-        <v>160.71192675522434</v>
+        <f t="shared" si="7"/>
+        <v>143.45246797880608</v>
       </c>
       <c r="J29" s="31">
-        <f t="shared" si="4"/>
-        <v>299.83751891604561</v>
+        <f t="shared" si="7"/>
+        <v>267.47603371026139</v>
       </c>
       <c r="K29" s="31">
-        <f t="shared" si="4"/>
-        <v>399.21294188806087</v>
+        <f t="shared" si="7"/>
+        <v>356.06429494701536</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -20367,31 +20369,31 @@
       </c>
       <c r="E30" s="31">
         <f>SUM(E26*$E28)</f>
-        <v>8.0059437929421584</v>
+        <v>8.699608931985539</v>
       </c>
       <c r="F30" s="31">
-        <f t="shared" ref="F30:K30" si="5">SUM(F26*$E28)</f>
-        <v>6.8382121252481651</v>
+        <f t="shared" ref="F30:K30" si="8">SUM(F26*$E28)</f>
+        <v>6.1079719152370409</v>
       </c>
       <c r="G30" s="31">
-        <f t="shared" si="5"/>
-        <v>19.955767957554176</v>
+        <f t="shared" si="8"/>
+        <v>17.801622398488544</v>
       </c>
       <c r="H30" s="31">
-        <f t="shared" si="5"/>
-        <v>33.073323789860176</v>
+        <f t="shared" si="8"/>
+        <v>29.495272881740046</v>
       </c>
       <c r="I30" s="31">
-        <f t="shared" si="5"/>
-        <v>46.190879622166193</v>
+        <f t="shared" si="8"/>
+        <v>41.188923364991545</v>
       </c>
       <c r="J30" s="31">
-        <f t="shared" si="5"/>
-        <v>92.102325035237214</v>
+        <f t="shared" si="8"/>
+        <v>82.116700056371798</v>
       </c>
       <c r="K30" s="31">
-        <f t="shared" si="5"/>
-        <v>124.89621461600225</v>
+        <f t="shared" si="8"/>
+        <v>111.3508262645006</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -20401,31 +20403,31 @@
       <c r="D31" s="8"/>
       <c r="E31" s="134">
         <f>SUM(E30/E29)</f>
-        <v>0.21641162429262786</v>
+        <v>0.2396560663956887</v>
       </c>
       <c r="F31" s="134">
-        <f t="shared" ref="F31:K31" si="6">SUM(F30/F29)</f>
-        <v>0.16492952385706983</v>
+        <f t="shared" ref="F31:K31" si="9">SUM(F30/F29)</f>
+        <v>0.16442902978009077</v>
       </c>
       <c r="G31" s="134">
-        <f t="shared" si="6"/>
-        <v>0.24572562064375825</v>
+        <f t="shared" si="9"/>
+        <v>0.24526269575277179</v>
       </c>
       <c r="H31" s="134">
-        <f t="shared" si="6"/>
-        <v>0.27341966961500308</v>
+        <f t="shared" si="9"/>
+        <v>0.27306098336937418</v>
       </c>
       <c r="I31" s="134">
-        <f t="shared" si="6"/>
-        <v>0.28741413630438378</v>
+        <f t="shared" si="9"/>
+        <v>0.28712593059797947</v>
       </c>
       <c r="J31" s="134">
-        <f t="shared" si="6"/>
-        <v>0.30717411672895356</v>
+        <f t="shared" si="9"/>
+        <v>0.30700582372670904</v>
       </c>
       <c r="K31" s="134">
-        <f t="shared" si="6"/>
-        <v>0.31285612642042826</v>
+        <f t="shared" si="9"/>
+        <v>0.31272674021154045</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -20437,31 +20439,31 @@
       </c>
       <c r="E32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.0852348292777578</v>
+        <v>1.8682257080319289</v>
       </c>
       <c r="F32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.0852348292777578</v>
+        <v>1.8682257080319289</v>
       </c>
       <c r="G32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.0852348292777578</v>
+        <v>1.8682257080319289</v>
       </c>
       <c r="H32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.0852348292777578</v>
+        <v>1.8682257080319289</v>
       </c>
       <c r="I32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.0852348292777578</v>
+        <v>1.8682257080319289</v>
       </c>
       <c r="J32" s="68">
         <f>SUM(J25/$D6)</f>
-        <v>15.079841688988045</v>
+        <v>13.452273279644329</v>
       </c>
       <c r="K32" s="68">
         <f>SUM(K25/$D6)</f>
-        <v>20.077767404261234</v>
+        <v>17.907676191802949</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -20472,32 +20474,32 @@
         <v>116</v>
       </c>
       <c r="E33" s="68">
-        <f>SUM(E25/$B5)</f>
+        <f t="shared" ref="E33:K33" si="10">SUM(E25/$B5)</f>
         <v>0.24084778420038536</v>
       </c>
       <c r="F33" s="68">
-        <f>SUM(F25/$B5)</f>
-        <v>0.22190868758727297</v>
+        <f t="shared" si="10"/>
+        <v>0.19881478534950503</v>
       </c>
       <c r="G33" s="68">
-        <f>SUM(G25/$B5)</f>
-        <v>0.43465846915870354</v>
+        <f t="shared" si="10"/>
+        <v>0.38847066468316765</v>
       </c>
       <c r="H33" s="68">
-        <f>SUM(H25/$B5)</f>
-        <v>0.64740825073013397</v>
+        <f t="shared" si="10"/>
+        <v>0.57812654401683017</v>
       </c>
       <c r="I33" s="68">
-        <f>SUM(I25/$B5)</f>
-        <v>0.86015803230156462</v>
+        <f t="shared" si="10"/>
+        <v>0.76778242335049285</v>
       </c>
       <c r="J33" s="68">
-        <f>SUM(J25/$B5)</f>
-        <v>1.6047822678015715</v>
+        <f t="shared" si="10"/>
+        <v>1.4315780010183119</v>
       </c>
       <c r="K33" s="68">
-        <f>SUM(K25/$B5)</f>
-        <v>2.136656721730148</v>
+        <f t="shared" si="10"/>
+        <v>1.9057176993524689</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -28695,21 +28697,21 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="231" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
       <c r="E1" s="6"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="227" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
+      <c r="A2" s="232" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="64"/>
@@ -28719,10 +28721,10 @@
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="230" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="225"/>
+      <c r="C3" s="230"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="65"/>
@@ -28732,10 +28734,10 @@
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="228"/>
+      <c r="C4" s="233"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
@@ -28780,21 +28782,21 @@
       <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="224" t="s">
+      <c r="F6" s="229" t="s">
         <v>244</v>
       </c>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="229"/>
     </row>
     <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
@@ -28837,27 +28839,27 @@
         <v>3.47235</v>
       </c>
       <c r="F8" s="136">
-        <f>SUM($E8*F$22)</f>
+        <f t="shared" ref="F8:K11" si="0">SUM($E8*F$22)</f>
         <v>6.9447000000000001</v>
       </c>
       <c r="G8" s="136">
-        <f>SUM($E8*G$22)</f>
+        <f t="shared" si="0"/>
         <v>13.8894</v>
       </c>
       <c r="H8" s="136">
-        <f>SUM($E8*H$22)</f>
+        <f t="shared" si="0"/>
         <v>20.834099999999999</v>
       </c>
       <c r="I8" s="136">
-        <f>SUM($E8*I$22)</f>
+        <f t="shared" si="0"/>
         <v>27.7788</v>
       </c>
       <c r="J8" s="136">
-        <f>SUM($E8*J$22)</f>
+        <f t="shared" si="0"/>
         <v>52.085250000000002</v>
       </c>
       <c r="K8" s="136">
-        <f>SUM($E8*K$22)</f>
+        <f t="shared" si="0"/>
         <v>69.447000000000003</v>
       </c>
     </row>
@@ -28880,27 +28882,27 @@
         <v>0.70524999999999993</v>
       </c>
       <c r="F9" s="138">
-        <f>SUM($E9*F$22)</f>
+        <f t="shared" si="0"/>
         <v>1.4104999999999999</v>
       </c>
       <c r="G9" s="138">
-        <f>SUM($E9*G$22)</f>
+        <f t="shared" si="0"/>
         <v>2.8209999999999997</v>
       </c>
       <c r="H9" s="138">
-        <f>SUM($E9*H$22)</f>
+        <f t="shared" si="0"/>
         <v>4.2314999999999996</v>
       </c>
       <c r="I9" s="138">
-        <f>SUM($E9*I$22)</f>
+        <f t="shared" si="0"/>
         <v>5.6419999999999995</v>
       </c>
       <c r="J9" s="138">
-        <f>SUM($E9*J$22)</f>
+        <f t="shared" si="0"/>
         <v>10.578749999999999</v>
       </c>
       <c r="K9" s="138">
-        <f>SUM($E9*K$22)</f>
+        <f t="shared" si="0"/>
         <v>14.104999999999999</v>
       </c>
     </row>
@@ -28923,66 +28925,66 @@
         <v>4.7016666666666662</v>
       </c>
       <c r="F10" s="140">
-        <f>SUM($E10*F$22)</f>
+        <f t="shared" si="0"/>
         <v>9.4033333333333324</v>
       </c>
       <c r="G10" s="140">
-        <f>SUM($E10*G$22)</f>
+        <f t="shared" si="0"/>
         <v>18.806666666666665</v>
       </c>
       <c r="H10" s="140">
-        <f>SUM($E10*H$22)</f>
+        <f t="shared" si="0"/>
         <v>28.209999999999997</v>
       </c>
       <c r="I10" s="140">
-        <f>SUM($E10*I$22)</f>
+        <f t="shared" si="0"/>
         <v>37.61333333333333</v>
       </c>
       <c r="J10" s="140">
-        <f>SUM($E10*J$22)</f>
+        <f t="shared" si="0"/>
         <v>70.524999999999991</v>
       </c>
       <c r="K10" s="140">
-        <f>SUM($E10*K$22)</f>
+        <f t="shared" si="0"/>
         <v>94.033333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="227" t="s">
+      <c r="A11" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E11" s="70">
         <f>SUM(D6*General!B7)</f>
+        <v>0.4303448275862069</v>
+      </c>
+      <c r="F11" s="150">
+        <f t="shared" si="0"/>
+        <v>0.8606896551724138</v>
+      </c>
+      <c r="G11" s="150">
+        <f t="shared" si="0"/>
         <v>1.7213793103448276</v>
       </c>
-      <c r="F11" s="150">
-        <f>SUM($E11*F$22)</f>
+      <c r="H11" s="150">
+        <f t="shared" si="0"/>
+        <v>2.5820689655172413</v>
+      </c>
+      <c r="I11" s="150">
+        <f t="shared" si="0"/>
         <v>3.4427586206896552</v>
       </c>
-      <c r="G11" s="150">
-        <f>SUM($E11*G$22)</f>
-        <v>6.8855172413793104</v>
-      </c>
-      <c r="H11" s="150">
-        <f>SUM($E11*H$22)</f>
-        <v>10.328275862068965</v>
-      </c>
-      <c r="I11" s="150">
-        <f>SUM($E11*I$22)</f>
-        <v>13.771034482758621</v>
-      </c>
       <c r="J11" s="150">
-        <f>SUM($E11*J$22)</f>
-        <v>25.820689655172416</v>
+        <f t="shared" si="0"/>
+        <v>6.4551724137931039</v>
       </c>
       <c r="K11" s="150">
-        <f>SUM($E11*K$22)</f>
-        <v>34.427586206896549</v>
+        <f t="shared" si="0"/>
+        <v>8.6068965517241374</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -29004,27 +29006,27 @@
         <v>0</v>
       </c>
       <c r="F12" s="143">
-        <f>SUM($E12*F$23)</f>
+        <f t="shared" ref="F12:K12" si="1">SUM($E12*F$23)</f>
         <v>0</v>
       </c>
       <c r="G12" s="143">
-        <f>SUM($E12*G$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="143">
-        <f>SUM($E12*H$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="143">
-        <f>SUM($E12*I$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="143">
-        <f>SUM($E12*J$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="143">
-        <f>SUM($E12*K$23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -29047,27 +29049,27 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F13" s="145">
-        <f>SUM($E13*F$24)</f>
+        <f t="shared" ref="F13:K15" si="2">SUM($E13*F$24)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="G13" s="145">
-        <f>SUM($E13*G$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H13" s="145">
-        <f>SUM($E13*H$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I13" s="145">
-        <f>SUM($E13*I$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J13" s="145">
-        <f>SUM($E13*J$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="K13" s="145">
-        <f>SUM($E13*K$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -29090,36 +29092,36 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F14" s="147">
-        <f>SUM($E14*F$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G14" s="147">
-        <f>SUM($E14*G$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H14" s="147">
-        <f>SUM($E14*H$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I14" s="147">
-        <f>SUM($E14*I$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J14" s="147">
-        <f>SUM($E14*J$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="K14" s="147">
-        <f>SUM($E14*K$24)</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="227"/>
-      <c r="C15" s="227"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="232"/>
       <c r="D15" s="8" t="s">
         <v>19</v>
       </c>
@@ -29128,27 +29130,27 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="F15" s="151">
-        <f>SUM($E15*F$24)</f>
+        <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="G15" s="151">
-        <f>SUM($E15*G$24)</f>
+        <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="H15" s="151">
-        <f>SUM($E15*H$24)</f>
+        <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="I15" s="151">
-        <f>SUM($E15*I$24)</f>
+        <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="J15" s="151">
-        <f>SUM($E15*J$24)</f>
+        <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="K15" s="151">
-        <f>SUM($E15*K$24)</f>
+        <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
     </row>
@@ -29168,31 +29170,31 @@
       </c>
       <c r="E16" s="100" cm="1">
         <f t="array" ref="E16">SUM(E8:E14*(General!B5))</f>
-        <v>1.2267312643678159</v>
+        <v>1.0976278160919539</v>
       </c>
       <c r="F16" s="149" cm="1">
         <f t="array" ref="F16">SUM(F8:F14*(General!$B$5))</f>
-        <v>2.2867958620689657</v>
+        <v>2.0285889655172413</v>
       </c>
       <c r="G16" s="149" cm="1">
         <f t="array" ref="G16">SUM(G8:G14*(General!$B$5))</f>
-        <v>4.4069250574712635</v>
+        <v>3.8905112643678161</v>
       </c>
       <c r="H16" s="149" cm="1">
         <f t="array" ref="H16">SUM(H8:H14*(General!$B$5))</f>
-        <v>6.5270542528735627</v>
+        <v>5.7524335632183901</v>
       </c>
       <c r="I16" s="149" cm="1">
         <f t="array" ref="I16">SUM(I8:I14*(General!$B$5))</f>
-        <v>8.6471834482758627</v>
+        <v>7.6143558620689644</v>
       </c>
       <c r="J16" s="149" cm="1">
         <f t="array" ref="J16">SUM(J8:J14*(General!$B$5))</f>
-        <v>16.067635632183908</v>
+        <v>14.131083908045978</v>
       </c>
       <c r="K16" s="149" cm="1">
         <f t="array" ref="K16">SUM(K8:K14*(General!$B$5))</f>
-        <v>21.367958620689652</v>
+        <v>18.785889655172411</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -29211,31 +29213,31 @@
       </c>
       <c r="E17" s="23">
         <f>SUM(E8:E15)</f>
-        <v>14.433979310344828</v>
+        <v>13.142944827586208</v>
       </c>
       <c r="F17" s="27">
-        <f t="shared" ref="F17:K17" si="0">SUM(F8:F15)</f>
-        <v>25.03462528735632</v>
+        <f t="shared" ref="F17:K17" si="3">SUM(F8:F15)</f>
+        <v>22.452556321839079</v>
       </c>
       <c r="G17" s="27">
-        <f t="shared" si="0"/>
-        <v>46.235917241379312</v>
+        <f t="shared" si="3"/>
+        <v>41.07177931034483</v>
       </c>
       <c r="H17" s="27">
-        <f t="shared" si="0"/>
-        <v>67.437209195402289</v>
+        <f t="shared" si="3"/>
+        <v>59.691002298850577</v>
       </c>
       <c r="I17" s="27">
-        <f t="shared" si="0"/>
-        <v>88.638501149425281</v>
+        <f t="shared" si="3"/>
+        <v>78.310225287356317</v>
       </c>
       <c r="J17" s="27">
-        <f t="shared" si="0"/>
-        <v>162.84302298850574</v>
+        <f t="shared" si="3"/>
+        <v>143.47750574712643</v>
       </c>
       <c r="K17" s="27">
-        <f t="shared" si="0"/>
-        <v>215.8462528735632</v>
+        <f t="shared" si="3"/>
+        <v>190.0255632183908</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -29255,27 +29257,27 @@
       <c r="E18" s="27"/>
       <c r="F18" s="27">
         <f>F17*General!$B$8+General!$B$9</f>
-        <v>1.0260041333333334</v>
+        <v>0.95112413333333334</v>
       </c>
       <c r="G18" s="27">
         <f>G17*General!$B$8+General!$B$9</f>
-        <v>1.6408416000000001</v>
+        <v>1.4910816000000002</v>
       </c>
       <c r="H18" s="27">
         <f>H17*General!$B$8+General!$B$9</f>
-        <v>2.2556790666666666</v>
+        <v>2.0310390666666667</v>
       </c>
       <c r="I18" s="27">
         <f>I17*General!$B$8+General!$B$9</f>
-        <v>2.8705165333333329</v>
+        <v>2.5709965333333331</v>
       </c>
       <c r="J18" s="27">
         <f>J17*General!$B$8+General!$B$9</f>
-        <v>5.0224476666666664</v>
+        <v>4.4608476666666661</v>
       </c>
       <c r="K18" s="27">
         <f>K17*General!$B$8+General!$B$9</f>
-        <v>6.5595413333333328</v>
+        <v>5.8107413333333335</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -29294,39 +29296,39 @@
       </c>
       <c r="E19" s="23">
         <f>SUM(E8:E16)</f>
-        <v>15.660710574712644</v>
+        <v>14.240572643678162</v>
       </c>
       <c r="F19" s="27">
         <f>SUM(F8:F16,F18)</f>
-        <v>28.347425282758621</v>
+        <v>25.432269420689654</v>
       </c>
       <c r="G19" s="27">
-        <f t="shared" ref="G19:K19" si="1">SUM(G8:G16,G18)</f>
-        <v>52.283683898850576</v>
+        <f t="shared" ref="G19:K19" si="4">SUM(G8:G16,G18)</f>
+        <v>46.453372174712648</v>
       </c>
       <c r="H19" s="27">
-        <f t="shared" si="1"/>
-        <v>76.219942514942531</v>
+        <f t="shared" si="4"/>
+        <v>67.474474928735631</v>
       </c>
       <c r="I19" s="27">
-        <f t="shared" si="1"/>
-        <v>100.15620113103448</v>
+        <f t="shared" si="4"/>
+        <v>88.495577682758608</v>
       </c>
       <c r="J19" s="27">
-        <f t="shared" si="1"/>
-        <v>183.93310628735631</v>
+        <f t="shared" si="4"/>
+        <v>162.06943732183908</v>
       </c>
       <c r="K19" s="27">
-        <f t="shared" si="1"/>
-        <v>243.77375282758618</v>
+        <f t="shared" si="4"/>
+        <v>214.62219420689655</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="227"/>
-      <c r="C20" s="227"/>
+      <c r="B20" s="232"/>
+      <c r="C20" s="232"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
@@ -29484,27 +29486,27 @@
       </c>
       <c r="F25" s="27">
         <f>F19</f>
-        <v>28.347425282758621</v>
+        <v>25.432269420689654</v>
       </c>
       <c r="G25" s="27">
-        <f t="shared" ref="G25:K25" si="2">G19</f>
-        <v>52.283683898850576</v>
+        <f t="shared" ref="G25:K25" si="5">G19</f>
+        <v>46.453372174712648</v>
       </c>
       <c r="H25" s="27">
-        <f t="shared" si="2"/>
-        <v>76.219942514942531</v>
+        <f t="shared" si="5"/>
+        <v>67.474474928735631</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" si="2"/>
-        <v>100.15620113103448</v>
+        <f t="shared" si="5"/>
+        <v>88.495577682758608</v>
       </c>
       <c r="J25" s="27">
-        <f t="shared" si="2"/>
-        <v>183.93310628735631</v>
+        <f t="shared" si="5"/>
+        <v>162.06943732183908</v>
       </c>
       <c r="K25" s="27">
-        <f t="shared" si="2"/>
-        <v>243.77375282758618</v>
+        <f t="shared" si="5"/>
+        <v>214.62219420689655</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -29525,31 +29527,31 @@
       </c>
       <c r="E26" s="28">
         <f>E25-E19</f>
-        <v>-15.660710574712644</v>
+        <v>-14.240572643678162</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" ref="F26:K26" si="3">F25-$E19</f>
-        <v>12.686714708045978</v>
+        <f t="shared" ref="F26:K26" si="6">F25-$E19</f>
+        <v>11.191696777011492</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="3"/>
-        <v>36.622973324137931</v>
+        <f t="shared" si="6"/>
+        <v>32.212799531034484</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="3"/>
-        <v>60.559231940229886</v>
+        <f t="shared" si="6"/>
+        <v>53.233902285057468</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="3"/>
-        <v>84.49549055632184</v>
+        <f t="shared" si="6"/>
+        <v>74.255005039080444</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="3"/>
-        <v>168.27239571264366</v>
+        <f t="shared" si="6"/>
+        <v>147.82886467816093</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="3"/>
-        <v>228.11304225287353</v>
+        <f t="shared" si="6"/>
+        <v>200.3816215632184</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -29569,32 +29571,32 @@
         <v>107</v>
       </c>
       <c r="E27" s="30" t="e">
-        <f t="shared" ref="E27" si="4">SUM(E26/E25)</f>
+        <f t="shared" ref="E27" si="7">SUM(E26/E25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="30">
-        <f t="shared" ref="F27:K27" si="5">SUM(F26/F25)</f>
-        <v>0.44754380976399466</v>
+        <f t="shared" ref="F27:K27" si="8">SUM(F26/F25)</f>
+        <v>0.44005891066515779</v>
       </c>
       <c r="G27" s="30">
-        <f t="shared" si="5"/>
-        <v>0.70046658140978979</v>
+        <f t="shared" si="8"/>
+        <v>0.69344372696735757</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="5"/>
-        <v>0.79453263728659407</v>
+        <f t="shared" si="8"/>
+        <v>0.78894874456276098</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="5"/>
-        <v>0.84363713481680769</v>
+        <f t="shared" si="8"/>
+        <v>0.83908153360241167</v>
       </c>
       <c r="J27" s="30">
-        <f t="shared" si="5"/>
-        <v>0.91485648836786282</v>
+        <f t="shared" si="8"/>
+        <v>0.91213289267242237</v>
       </c>
       <c r="K27" s="30">
-        <f t="shared" si="5"/>
-        <v>0.93575719127649892</v>
+        <f t="shared" si="8"/>
+        <v>0.93364818258287774</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -29637,31 +29639,31 @@
       </c>
       <c r="E29" s="31">
         <f>SUM(E26*(1-E28)+$E$19)</f>
-        <v>7.8303552873563218</v>
+        <v>7.1202863218390808</v>
       </c>
       <c r="F29" s="31">
-        <f t="shared" ref="F29:K29" si="6">SUM(F26*(1-F28)+$E$19)</f>
-        <v>28.347425282758621</v>
+        <f t="shared" ref="F29:K29" si="9">SUM(F26*(1-F28)+$E$19)</f>
+        <v>25.432269420689654</v>
       </c>
       <c r="G29" s="31">
-        <f t="shared" si="6"/>
-        <v>52.283683898850576</v>
+        <f t="shared" si="9"/>
+        <v>46.453372174712648</v>
       </c>
       <c r="H29" s="31">
-        <f t="shared" si="6"/>
-        <v>76.219942514942531</v>
+        <f t="shared" si="9"/>
+        <v>67.474474928735631</v>
       </c>
       <c r="I29" s="31">
-        <f t="shared" si="6"/>
-        <v>100.15620113103448</v>
+        <f t="shared" si="9"/>
+        <v>88.495577682758608</v>
       </c>
       <c r="J29" s="31">
-        <f t="shared" si="6"/>
-        <v>183.93310628735631</v>
+        <f t="shared" si="9"/>
+        <v>162.06943732183908</v>
       </c>
       <c r="K29" s="31">
-        <f t="shared" si="6"/>
-        <v>243.77375282758618</v>
+        <f t="shared" si="9"/>
+        <v>214.62219420689655</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -29673,31 +29675,31 @@
       </c>
       <c r="E30" s="31">
         <f>SUM(E26*$E28)</f>
-        <v>-7.8303552873563218</v>
+        <v>-7.1202863218390808</v>
       </c>
       <c r="F30" s="31">
-        <f t="shared" ref="F30:K30" si="7">SUM(F26*$E28)</f>
-        <v>6.3433573540229888</v>
+        <f t="shared" ref="F30:K30" si="10">SUM(F26*$E28)</f>
+        <v>5.595848388505746</v>
       </c>
       <c r="G30" s="31">
-        <f t="shared" si="7"/>
-        <v>18.311486662068965</v>
+        <f t="shared" si="10"/>
+        <v>16.106399765517242</v>
       </c>
       <c r="H30" s="31">
-        <f t="shared" si="7"/>
-        <v>30.279615970114943</v>
+        <f t="shared" si="10"/>
+        <v>26.616951142528734</v>
       </c>
       <c r="I30" s="31">
-        <f t="shared" si="7"/>
-        <v>42.24774527816092</v>
+        <f t="shared" si="10"/>
+        <v>37.127502519540222</v>
       </c>
       <c r="J30" s="31">
-        <f t="shared" si="7"/>
-        <v>84.136197856321829</v>
+        <f t="shared" si="10"/>
+        <v>73.914432339080463</v>
       </c>
       <c r="K30" s="31">
-        <f t="shared" si="7"/>
-        <v>114.05652112643676</v>
+        <f t="shared" si="10"/>
+        <v>100.1908107816092</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -29710,28 +29712,28 @@
         <v>-1</v>
       </c>
       <c r="F31" s="134">
-        <f t="shared" ref="F31:K31" si="8">SUM(F30/F29)</f>
-        <v>0.22377190488199733</v>
+        <f t="shared" ref="F31:K31" si="11">SUM(F30/F29)</f>
+        <v>0.22002945533257889</v>
       </c>
       <c r="G31" s="134">
-        <f t="shared" si="8"/>
-        <v>0.3502332907048949</v>
+        <f t="shared" si="11"/>
+        <v>0.34672186348367878</v>
       </c>
       <c r="H31" s="134">
-        <f t="shared" si="8"/>
-        <v>0.39726631864329703</v>
+        <f t="shared" si="11"/>
+        <v>0.39447437228138049</v>
       </c>
       <c r="I31" s="134">
-        <f t="shared" si="8"/>
-        <v>0.42181856740840384</v>
+        <f t="shared" si="11"/>
+        <v>0.41954076680120583</v>
       </c>
       <c r="J31" s="134">
-        <f t="shared" si="8"/>
-        <v>0.45742824418393141</v>
+        <f t="shared" si="11"/>
+        <v>0.45606644633621118</v>
       </c>
       <c r="K31" s="134">
-        <f t="shared" si="8"/>
-        <v>0.46787859563824946</v>
+        <f t="shared" si="11"/>
+        <v>0.46682409129143887</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -29743,31 +29745,31 @@
       </c>
       <c r="E32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.1102301699324033</v>
+        <v>1.8932210486865746</v>
       </c>
       <c r="F32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.1102301699324033</v>
+        <v>1.8932210486865746</v>
       </c>
       <c r="G32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.1102301699324033</v>
+        <v>1.8932210486865746</v>
       </c>
       <c r="H32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.1102301699324033</v>
+        <v>1.8932210486865746</v>
       </c>
       <c r="I32" s="68">
         <f>SUM($F25/$D6)</f>
-        <v>2.1102301699324033</v>
+        <v>1.8932210486865746</v>
       </c>
       <c r="J32" s="68">
         <f>SUM(J25/$D6)</f>
-        <v>13.692290790622058</v>
+        <v>12.064722381278344</v>
       </c>
       <c r="K32" s="68">
         <f>SUM(K25/$D6)</f>
-        <v>18.14692949088731</v>
+        <v>15.976838278429023</v>
       </c>
     </row>
     <row r="33" spans="4:11" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -29775,32 +29777,32 @@
         <v>116</v>
       </c>
       <c r="E33" s="68">
-        <f>SUM(E25/$B5)</f>
+        <f t="shared" ref="E33:K33" si="12">SUM(E25/$B5)</f>
         <v>0</v>
       </c>
       <c r="F33" s="68">
-        <f>SUM(F25/$B5)</f>
-        <v>0.12245637082707081</v>
+        <f t="shared" si="12"/>
+        <v>0.10986336092569723</v>
       </c>
       <c r="G33" s="68">
-        <f>SUM(G25/$B5)</f>
-        <v>0.22585720289796785</v>
+        <f t="shared" si="12"/>
+        <v>0.20067118309522072</v>
       </c>
       <c r="H33" s="68">
-        <f>SUM(H25/$B5)</f>
-        <v>0.32925803496886485</v>
+        <f t="shared" si="12"/>
+        <v>0.29147900526474418</v>
       </c>
       <c r="I33" s="68">
-        <f>SUM(I25/$B5)</f>
-        <v>0.43265886703976186</v>
+        <f t="shared" si="12"/>
+        <v>0.38228682743426756</v>
       </c>
       <c r="J33" s="68">
-        <f>SUM(J25/$B5)</f>
-        <v>0.79456177928790139</v>
+        <f t="shared" si="12"/>
+        <v>0.7001142050275998</v>
       </c>
       <c r="K33" s="68">
-        <f>SUM(K25/$B5)</f>
-        <v>1.053063859465144</v>
+        <f t="shared" si="12"/>
+        <v>0.9271337604514085</v>
       </c>
     </row>
     <row r="34" spans="4:11" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -36375,11 +36377,11 @@
         <f>(C2+E2)/D2</f>
         <v>0.05</v>
       </c>
-      <c r="J2" s="229" t="s">
+      <c r="J2" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
@@ -36407,9 +36409,9 @@
         <f>(C3+E3)/D3</f>
         <v>0.3</v>
       </c>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="87" t="s">
@@ -36437,9 +36439,9 @@
         <f>(C4+E4)/D4</f>
         <v>1.6</v>
       </c>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="229"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="87" t="s">
@@ -36467,9 +36469,9 @@
         <f>(C5+E5)/D5</f>
         <v>0.499</v>
       </c>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="229"/>
+      <c r="J5" s="234"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="87"/>
@@ -36482,9 +36484,9 @@
         <v>0</v>
       </c>
       <c r="H6" s="91"/>
-      <c r="J6" s="229"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="229"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="234"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="87"/>
@@ -36497,9 +36499,9 @@
         <v>0</v>
       </c>
       <c r="H7" s="91"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="87"/>
@@ -36512,9 +36514,9 @@
         <v>0</v>
       </c>
       <c r="H8" s="91"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229"/>
-      <c r="L8" s="229"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="87"/>
@@ -36527,9 +36529,9 @@
         <v>0</v>
       </c>
       <c r="H9" s="91"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="229"/>
-      <c r="L9" s="229"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="87"/>
@@ -36542,9 +36544,9 @@
         <v>0</v>
       </c>
       <c r="H10" s="91"/>
-      <c r="J10" s="229"/>
-      <c r="K10" s="229"/>
-      <c r="L10" s="229"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="87"/>
@@ -36557,9 +36559,9 @@
         <v>0</v>
       </c>
       <c r="H11" s="91"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="229"/>
-      <c r="L11" s="229"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="234"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="87"/>
@@ -37947,8 +37949,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38043,8 +38045,11 @@
       <c r="G6" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="154" t="s">
+      <c r="H6" s="153" t="s">
         <v>122</v>
+      </c>
+      <c r="I6" s="335" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -38053,7 +38058,7 @@
       </c>
       <c r="B7" s="169">
         <f>E7/D7</f>
-        <v>0.12814238042269188</v>
+        <v>3.203559510567297E-2</v>
       </c>
       <c r="C7" s="170" t="str">
         <f>B6&amp;"/h"</f>
@@ -38064,8 +38069,8 @@
         <v>744</v>
       </c>
       <c r="E7" s="155">
-        <f>F7/G7*H7</f>
-        <v>95.33793103448275</v>
+        <f>(F7/G7*H7)/I7</f>
+        <v>23.834482758620688</v>
       </c>
       <c r="F7" s="156">
         <v>1152</v>
@@ -38073,52 +38078,51 @@
       <c r="G7" s="157">
         <v>1450</v>
       </c>
-      <c r="H7" s="158">
+      <c r="H7" s="157">
         <f>12*10</f>
         <v>120</v>
       </c>
+      <c r="I7" s="158">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="330" t="s">
+      <c r="A8" s="224" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="335">
+      <c r="B8" s="227">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C8" s="331"/>
-      <c r="D8" s="331"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="333"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="334"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="226"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="330" t="s">
+      <c r="A9" s="224" t="s">
         <v>287</v>
       </c>
-      <c r="B9" s="336">
+      <c r="B9" s="228">
         <v>0.3</v>
       </c>
-      <c r="C9" s="331"/>
-      <c r="D9" s="331"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="333"/>
-      <c r="G9" s="334"/>
-      <c r="H9" s="334"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="226"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J10" s="233" t="s">
+      <c r="J10" s="238" t="s">
         <v>256</v>
       </c>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="230" t="s">
+      <c r="J11" s="235" t="s">
         <v>168</v>
       </c>
-      <c r="K11" s="231"/>
-      <c r="L11" s="232"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="237"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12" s="180" t="s">
@@ -38275,176 +38279,176 @@
       <c r="I2" s="219" t="s">
         <v>264</v>
       </c>
-      <c r="J2" s="297" t="s">
+      <c r="J2" s="242" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="298"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="300" t="s">
+      <c r="K2" s="243"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="245" t="s">
         <v>162</v>
       </c>
-      <c r="N2" s="301"/>
-      <c r="O2" s="302"/>
-      <c r="P2" s="303" t="s">
+      <c r="N2" s="246"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="248" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="305"/>
-      <c r="S2" s="306" t="s">
+      <c r="Q2" s="249"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="251" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="307"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="309" t="s">
+      <c r="T2" s="252"/>
+      <c r="U2" s="253"/>
+      <c r="V2" s="254" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="310"/>
-      <c r="X2" s="311"/>
-      <c r="Y2" s="312" t="s">
+      <c r="W2" s="255"/>
+      <c r="X2" s="256"/>
+      <c r="Y2" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="314"/>
-      <c r="AB2" s="315" t="s">
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="259"/>
+      <c r="AB2" s="260" t="s">
         <v>230</v>
       </c>
-      <c r="AC2" s="316"/>
-      <c r="AD2" s="317"/>
-      <c r="AE2" s="318" t="s">
+      <c r="AC2" s="261"/>
+      <c r="AD2" s="262"/>
+      <c r="AE2" s="263" t="s">
         <v>127</v>
       </c>
-      <c r="AF2" s="319"/>
-      <c r="AG2" s="320"/>
-      <c r="AH2" s="321" t="s">
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="265"/>
+      <c r="AH2" s="266" t="s">
         <v>163</v>
       </c>
-      <c r="AI2" s="322"/>
-      <c r="AJ2" s="323"/>
-      <c r="AK2" s="324" t="s">
+      <c r="AI2" s="267"/>
+      <c r="AJ2" s="268"/>
+      <c r="AK2" s="269" t="s">
         <v>129</v>
       </c>
-      <c r="AL2" s="325"/>
-      <c r="AM2" s="326"/>
-      <c r="AN2" s="327" t="s">
+      <c r="AL2" s="270"/>
+      <c r="AM2" s="271"/>
+      <c r="AN2" s="272" t="s">
         <v>136</v>
       </c>
-      <c r="AO2" s="328"/>
-      <c r="AP2" s="329"/>
-      <c r="AQ2" s="294" t="s">
+      <c r="AO2" s="273"/>
+      <c r="AP2" s="274"/>
+      <c r="AQ2" s="239" t="s">
         <v>135</v>
       </c>
-      <c r="AR2" s="295"/>
-      <c r="AS2" s="296"/>
-      <c r="AT2" s="264" t="s">
+      <c r="AR2" s="240"/>
+      <c r="AS2" s="241"/>
+      <c r="AT2" s="278" t="s">
         <v>171</v>
       </c>
-      <c r="AU2" s="265"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="267" t="s">
+      <c r="AU2" s="279"/>
+      <c r="AV2" s="280"/>
+      <c r="AW2" s="281" t="s">
         <v>132</v>
       </c>
-      <c r="AX2" s="268"/>
-      <c r="AY2" s="269"/>
-      <c r="AZ2" s="240" t="s">
+      <c r="AX2" s="282"/>
+      <c r="AY2" s="283"/>
+      <c r="AZ2" s="284" t="s">
         <v>169</v>
       </c>
-      <c r="BA2" s="241"/>
-      <c r="BB2" s="242"/>
-      <c r="BC2" s="270" t="s">
+      <c r="BA2" s="285"/>
+      <c r="BB2" s="286"/>
+      <c r="BC2" s="287" t="s">
         <v>144</v>
       </c>
-      <c r="BD2" s="271"/>
-      <c r="BE2" s="272"/>
-      <c r="BF2" s="273" t="s">
+      <c r="BD2" s="288"/>
+      <c r="BE2" s="289"/>
+      <c r="BF2" s="290" t="s">
         <v>131</v>
       </c>
-      <c r="BG2" s="274"/>
-      <c r="BH2" s="275"/>
-      <c r="BI2" s="276" t="s">
+      <c r="BG2" s="291"/>
+      <c r="BH2" s="292"/>
+      <c r="BI2" s="293" t="s">
         <v>134</v>
       </c>
-      <c r="BJ2" s="277"/>
-      <c r="BK2" s="278"/>
-      <c r="BL2" s="279" t="s">
+      <c r="BJ2" s="294"/>
+      <c r="BK2" s="295"/>
+      <c r="BL2" s="296" t="s">
         <v>133</v>
       </c>
-      <c r="BM2" s="280"/>
-      <c r="BN2" s="281"/>
-      <c r="BO2" s="282" t="s">
+      <c r="BM2" s="297"/>
+      <c r="BN2" s="298"/>
+      <c r="BO2" s="299" t="s">
         <v>207</v>
       </c>
-      <c r="BP2" s="283"/>
-      <c r="BQ2" s="284"/>
-      <c r="BR2" s="285" t="s">
+      <c r="BP2" s="300"/>
+      <c r="BQ2" s="301"/>
+      <c r="BR2" s="302" t="s">
         <v>208</v>
       </c>
-      <c r="BS2" s="286"/>
-      <c r="BT2" s="287"/>
-      <c r="BU2" s="288" t="s">
+      <c r="BS2" s="303"/>
+      <c r="BT2" s="304"/>
+      <c r="BU2" s="305" t="s">
         <v>209</v>
       </c>
-      <c r="BV2" s="289"/>
-      <c r="BW2" s="290"/>
-      <c r="BX2" s="291" t="s">
+      <c r="BV2" s="306"/>
+      <c r="BW2" s="307"/>
+      <c r="BX2" s="308" t="s">
         <v>210</v>
       </c>
-      <c r="BY2" s="292"/>
-      <c r="BZ2" s="293"/>
-      <c r="CA2" s="261" t="s">
+      <c r="BY2" s="309"/>
+      <c r="BZ2" s="310"/>
+      <c r="CA2" s="275" t="s">
         <v>170</v>
       </c>
-      <c r="CB2" s="262"/>
-      <c r="CC2" s="263"/>
-      <c r="CD2" s="243" t="s">
+      <c r="CB2" s="276"/>
+      <c r="CC2" s="277"/>
+      <c r="CD2" s="317" t="s">
         <v>220</v>
       </c>
-      <c r="CE2" s="244"/>
-      <c r="CF2" s="245"/>
-      <c r="CG2" s="246" t="s">
+      <c r="CE2" s="318"/>
+      <c r="CF2" s="319"/>
+      <c r="CG2" s="320" t="s">
         <v>222</v>
       </c>
-      <c r="CH2" s="247"/>
-      <c r="CI2" s="248"/>
-      <c r="CJ2" s="249" t="s">
+      <c r="CH2" s="321"/>
+      <c r="CI2" s="322"/>
+      <c r="CJ2" s="323" t="s">
         <v>229</v>
       </c>
-      <c r="CK2" s="250"/>
-      <c r="CL2" s="251"/>
-      <c r="CM2" s="252" t="s">
+      <c r="CK2" s="324"/>
+      <c r="CL2" s="325"/>
+      <c r="CM2" s="326" t="s">
         <v>224</v>
       </c>
-      <c r="CN2" s="253"/>
-      <c r="CO2" s="254"/>
-      <c r="CP2" s="255" t="s">
+      <c r="CN2" s="327"/>
+      <c r="CO2" s="328"/>
+      <c r="CP2" s="329" t="s">
         <v>227</v>
       </c>
-      <c r="CQ2" s="256"/>
-      <c r="CR2" s="257"/>
-      <c r="CS2" s="258" t="s">
+      <c r="CQ2" s="330"/>
+      <c r="CR2" s="331"/>
+      <c r="CS2" s="332" t="s">
         <v>226</v>
       </c>
-      <c r="CT2" s="259"/>
-      <c r="CU2" s="260"/>
-      <c r="CV2" s="234" t="s">
+      <c r="CT2" s="333"/>
+      <c r="CU2" s="334"/>
+      <c r="CV2" s="311" t="s">
         <v>223</v>
       </c>
-      <c r="CW2" s="235"/>
-      <c r="CX2" s="236"/>
-      <c r="CY2" s="237" t="s">
+      <c r="CW2" s="312"/>
+      <c r="CX2" s="313"/>
+      <c r="CY2" s="314" t="s">
         <v>225</v>
       </c>
-      <c r="CZ2" s="238"/>
-      <c r="DA2" s="239"/>
-      <c r="DB2" s="240" t="s">
+      <c r="CZ2" s="315"/>
+      <c r="DA2" s="316"/>
+      <c r="DB2" s="284" t="s">
         <v>165</v>
       </c>
-      <c r="DC2" s="241"/>
-      <c r="DD2" s="242"/>
-      <c r="DE2" s="240" t="s">
+      <c r="DC2" s="285"/>
+      <c r="DD2" s="286"/>
+      <c r="DE2" s="284" t="s">
         <v>167</v>
       </c>
-      <c r="DF2" s="241"/>
-      <c r="DG2" s="242"/>
+      <c r="DF2" s="285"/>
+      <c r="DG2" s="286"/>
     </row>
     <row r="3" spans="1:111" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A3" s="171" t="s">
@@ -48356,6 +48360,28 @@
     <sortCondition ref="A38"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="CV2:CX2"/>
+    <mergeCell ref="CY2:DA2"/>
+    <mergeCell ref="DB2:DD2"/>
+    <mergeCell ref="DE2:DG2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="CG2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="CM2:CO2"/>
+    <mergeCell ref="CP2:CR2"/>
+    <mergeCell ref="CS2:CU2"/>
+    <mergeCell ref="CA2:CC2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BU2:BW2"/>
+    <mergeCell ref="BX2:BZ2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
@@ -48368,28 +48394,6 @@
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="CA2:CC2"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BO2:BQ2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BU2:BW2"/>
-    <mergeCell ref="BX2:BZ2"/>
-    <mergeCell ref="CV2:CX2"/>
-    <mergeCell ref="CY2:DA2"/>
-    <mergeCell ref="DB2:DD2"/>
-    <mergeCell ref="DE2:DG2"/>
-    <mergeCell ref="CD2:CF2"/>
-    <mergeCell ref="CG2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="CM2:CO2"/>
-    <mergeCell ref="CP2:CR2"/>
-    <mergeCell ref="CS2:CU2"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <conditionalFormatting sqref="CM1:DA1">
